--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1078433.83531512</v>
+        <v>1073145.719820348</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10060185.74202572</v>
+        <v>10058415.80385447</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>141.8136710519542</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -725,7 +725,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>26.81520136528991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>54.73201553309394</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968142</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>130.2648764202384</v>
       </c>
       <c r="C4" t="n">
-        <v>86.5699439007216</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -838,7 +838,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>391.39622706473</v>
       </c>
       <c r="H5" t="n">
-        <v>264.7439984834243</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -962,7 +962,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,10 +987,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>69.98930104615414</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>153.3695551997895</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>270.6476553922703</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>164.8887288238693</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>121.6053229291681</v>
+        <v>346.4359144019084</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1199,7 +1199,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.53026179397022</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>256.4561542453789</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>114.9652611068542</v>
       </c>
       <c r="W11" t="n">
-        <v>49.79845747110409</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>41.79280680112855</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>79.05283257407037</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
@@ -1607,7 +1607,7 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
@@ -1616,7 +1616,7 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>42.78909148798845</v>
+        <v>259.02009892365</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>35.98719038252865</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>181.6445393139612</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.4884501927754</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059265</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542122</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345502</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838911</v>
+        <v>24.17382596574976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828923</v>
+        <v>52.06849973564988</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161068</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034461</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813247</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.221621716203</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885342</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431756</v>
+        <v>70.5760187316782</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459996</v>
+        <v>55.72314698196061</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643969</v>
+        <v>41.29686219380034</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193188</v>
+        <v>41.22330424667945</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908607</v>
+        <v>42.97275566644672</v>
       </c>
       <c r="G34" t="n">
-        <v>60.2350560614782</v>
+        <v>53.79159358883885</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805025</v>
+        <v>41.14384575541089</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922218</v>
+        <v>18.98356133658282</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736781</v>
+        <v>9.882059701038742</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920541</v>
+        <v>88.00800320656606</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714524</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277576</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
@@ -4195,13 +4195,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.8922126370105</v>
+        <v>749.1032859812</v>
       </c>
       <c r="C2" t="n">
-        <v>527.8922126370105</v>
+        <v>749.1032859812</v>
       </c>
       <c r="D2" t="n">
-        <v>527.8922126370105</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8922126370105</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F2" t="n">
-        <v>515.0381782073923</v>
+        <v>593.0031191758704</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K2" t="n">
-        <v>175.3530084793389</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L2" t="n">
-        <v>668.6733001978678</v>
+        <v>588.487006042434</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.932085207961</v>
+        <v>588.487006042434</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845423</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737752</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737752</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023274</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023274</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.28945358269</v>
+        <v>1851.661735376337</v>
       </c>
       <c r="U2" t="n">
-        <v>1657.536724017289</v>
+        <v>1851.661735376337</v>
       </c>
       <c r="V2" t="n">
-        <v>1315.429914720808</v>
+        <v>1509.554926079856</v>
       </c>
       <c r="W2" t="n">
-        <v>944.430879689095</v>
+        <v>1138.555891048143</v>
       </c>
       <c r="X2" t="n">
-        <v>554.9782746221518</v>
+        <v>749.1032859812</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8922126370105</v>
+        <v>749.1032859812</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>745.4998636313039</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L3" t="n">
-        <v>640.1767275127957</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="M3" t="n">
-        <v>1120.003902136677</v>
+        <v>407.970520326257</v>
       </c>
       <c r="N3" t="n">
-        <v>1658.262687146771</v>
+        <v>921.5731989359448</v>
       </c>
       <c r="O3" t="n">
-        <v>2174.782969737752</v>
+        <v>1435.175877545633</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737752</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737752</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737752</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>897.2961980722653</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>618.2256087514338</v>
+        <v>811.3695860451248</v>
       </c>
       <c r="C4" t="n">
-        <v>530.7812209729271</v>
+        <v>811.3695860451248</v>
       </c>
       <c r="D4" t="n">
-        <v>530.7812209729271</v>
+        <v>655.7364729476396</v>
       </c>
       <c r="E4" t="n">
-        <v>375.2224088321296</v>
+        <v>500.1776608068421</v>
       </c>
       <c r="F4" t="n">
-        <v>375.2224088321296</v>
+        <v>342.851726019815</v>
       </c>
       <c r="G4" t="n">
-        <v>206.9683549315752</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="H4" t="n">
-        <v>206.9683549315752</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I4" t="n">
-        <v>73.8739295686531</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X4" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y4" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>471.2273424897883</v>
+        <v>1314.710697718265</v>
       </c>
       <c r="C5" t="n">
-        <v>471.2273424897883</v>
+        <v>1314.710697718265</v>
       </c>
       <c r="D5" t="n">
-        <v>471.2273424897883</v>
+        <v>1314.710697718265</v>
       </c>
       <c r="E5" t="n">
-        <v>471.2273424897883</v>
+        <v>912.1271728348092</v>
       </c>
       <c r="F5" t="n">
-        <v>458.3733080601701</v>
+        <v>899.273138405191</v>
       </c>
       <c r="G5" t="n">
-        <v>449.2509565885774</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222169</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L5" t="n">
-        <v>402.4780154222169</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="M5" t="n">
-        <v>940.7368004323105</v>
+        <v>914.088281393488</v>
       </c>
       <c r="N5" t="n">
-        <v>1468.548084069772</v>
+        <v>1286.93524479307</v>
       </c>
       <c r="O5" t="n">
-        <v>1908.587684962101</v>
+        <v>1726.974845685399</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023274</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964324</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964324</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964324</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="V5" t="n">
-        <v>1628.169691667843</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="W5" t="n">
-        <v>1257.17065663613</v>
+        <v>1704.163302785208</v>
       </c>
       <c r="X5" t="n">
-        <v>867.7180515691872</v>
+        <v>1314.710697718265</v>
       </c>
       <c r="Y5" t="n">
-        <v>471.2273424897883</v>
+        <v>1314.710697718265</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.813417902147</v>
+        <v>791.481975908281</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622392</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837195</v>
+        <v>510.7387780898535</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946072</v>
+        <v>374.2922872007412</v>
       </c>
       <c r="F6" t="n">
-        <v>114.191923077739</v>
+        <v>249.860481083873</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475504</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475504</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475504</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>527.0617452930683</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M6" t="n">
-        <v>1065.320530303162</v>
+        <v>1327.194567652342</v>
       </c>
       <c r="N6" t="n">
-        <v>1603.579315313255</v>
+        <v>1327.194567652342</v>
       </c>
       <c r="O6" t="n">
-        <v>2120.099597904236</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737752</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635816</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535685</v>
+        <v>1940.23166071679</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734594</v>
+        <v>1940.23166071679</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413235</v>
+        <v>1730.168517395431</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784302</v>
+        <v>1507.628515766498</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917589</v>
+        <v>1277.511269899785</v>
       </c>
       <c r="X6" t="n">
-        <v>986.923969267601</v>
+        <v>1122.592527273735</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431083</v>
+        <v>943.2783103492424</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.8739295686531</v>
+        <v>342.851726019815</v>
       </c>
       <c r="C7" t="n">
-        <v>73.8739295686531</v>
+        <v>342.851726019815</v>
       </c>
       <c r="D7" t="n">
-        <v>73.8739295686531</v>
+        <v>342.851726019815</v>
       </c>
       <c r="E7" t="n">
-        <v>73.8739295686531</v>
+        <v>342.851726019815</v>
       </c>
       <c r="F7" t="n">
-        <v>73.8739295686531</v>
+        <v>342.851726019815</v>
       </c>
       <c r="G7" t="n">
-        <v>73.8739295686531</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="H7" t="n">
-        <v>73.8739295686531</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>73.8739295686531</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T7" t="n">
-        <v>506.4075462870908</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="U7" t="n">
-        <v>506.4075462870908</v>
+        <v>342.851726019815</v>
       </c>
       <c r="V7" t="n">
-        <v>240.428201107915</v>
+        <v>342.851726019815</v>
       </c>
       <c r="W7" t="n">
-        <v>73.8739295686531</v>
+        <v>342.851726019815</v>
       </c>
       <c r="X7" t="n">
-        <v>73.8739295686531</v>
+        <v>342.851726019815</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.8739295686531</v>
+        <v>342.851726019815</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1058.583586908615</v>
+        <v>1208.706155899126</v>
       </c>
       <c r="C8" t="n">
-        <v>1058.583586908615</v>
+        <v>1208.706155899126</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.583586908615</v>
+        <v>823.2650271157934</v>
       </c>
       <c r="E8" t="n">
-        <v>935.7499273842031</v>
+        <v>473.3297600431586</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O8" t="n">
         <v>1832.61545280471</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1448.036191975559</v>
+        <v>1994.649470045468</v>
       </c>
       <c r="X8" t="n">
-        <v>1058.583586908615</v>
+        <v>1605.196864978524</v>
       </c>
       <c r="Y8" t="n">
-        <v>1058.583586908615</v>
+        <v>1208.706155899126</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>367.0521161637701</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>2021.614212075288</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>884.5880110330252</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>714.3828930990144</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>558.7497800015292</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>558.7497800015292</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>401.4238452145021</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>233.1697913139477</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4999,13 +4999,13 @@
         <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>689.7133721932184</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1719.577864530541</v>
+        <v>1719.57786453054</v>
       </c>
       <c r="C11" t="n">
-        <v>1398.198638179666</v>
+        <v>1398.198638179664</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>1398.198638179664</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185756</v>
+        <v>722.3132251185748</v>
       </c>
       <c r="G11" t="n">
         <v>380.9467447527725</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2740.928571142733</v>
+        <v>2989.829858835216</v>
       </c>
       <c r="W11" t="n">
-        <v>2690.627098949698</v>
+        <v>2690.627098949697</v>
       </c>
       <c r="X11" t="n">
-        <v>2372.970769028949</v>
+        <v>2372.970769028948</v>
       </c>
       <c r="Y11" t="n">
-        <v>2048.276335095744</v>
+        <v>2048.276335095743</v>
       </c>
     </row>
     <row r="12">
@@ -5121,13 +5121,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>469.018599345056</v>
+        <v>416.9138851238271</v>
       </c>
       <c r="C13" t="n">
-        <v>469.018599345056</v>
+        <v>374.6989287590508</v>
       </c>
       <c r="D13" t="n">
-        <v>469.018599345056</v>
+        <v>290.8620908077594</v>
       </c>
       <c r="E13" t="n">
-        <v>385.2560623504523</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="F13" t="n">
-        <v>299.7264027096188</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="G13" t="n">
-        <v>203.2686239552582</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457737</v>
+        <v>936.0428256245448</v>
       </c>
       <c r="V13" t="n">
-        <v>793.9644698127919</v>
+        <v>741.859755591563</v>
       </c>
       <c r="W13" t="n">
-        <v>582.4303428901635</v>
+        <v>530.3256286689344</v>
       </c>
       <c r="X13" t="n">
-        <v>582.4303428901635</v>
+        <v>530.3256286689344</v>
       </c>
       <c r="Y13" t="n">
-        <v>582.4303428901635</v>
+        <v>530.3256286689344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1688.124554843851</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="C14" t="n">
-        <v>1366.745328492975</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D14" t="n">
-        <v>1053.100474855837</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>722.3132251185752</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2683.941523761099</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="W14" t="n">
-        <v>2384.73876387558</v>
+        <v>2560.332018113113</v>
       </c>
       <c r="X14" t="n">
-        <v>2341.517459342259</v>
+        <v>2298.69555455387</v>
       </c>
       <c r="Y14" t="n">
-        <v>2016.823025409054</v>
+        <v>1974.001120620665</v>
       </c>
     </row>
     <row r="15">
@@ -5358,13 +5358,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
         <v>1458.313011372373</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>447.9763772990028</v>
+        <v>558.6374311877009</v>
       </c>
       <c r="C16" t="n">
-        <v>447.9763772990028</v>
+        <v>460.2285883998841</v>
       </c>
       <c r="D16" t="n">
-        <v>364.1395393477114</v>
+        <v>376.3917504485927</v>
       </c>
       <c r="E16" t="n">
-        <v>364.1395393477114</v>
+        <v>292.6292134539891</v>
       </c>
       <c r="F16" t="n">
-        <v>278.6098797068785</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G16" t="n">
-        <v>182.1521009525177</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>98.46982506020527</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5440,13 +5440,13 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1280.705150907707</v>
       </c>
       <c r="U16" t="n">
-        <v>1280.705150907706</v>
+        <v>1067.062634295802</v>
       </c>
       <c r="V16" t="n">
-        <v>1086.522080874724</v>
+        <v>883.5833016554368</v>
       </c>
       <c r="W16" t="n">
-        <v>874.9879539520959</v>
+        <v>672.0491747328083</v>
       </c>
       <c r="X16" t="n">
-        <v>712.7039068812729</v>
+        <v>672.0491747328083</v>
       </c>
       <c r="Y16" t="n">
-        <v>561.3881208441102</v>
+        <v>672.0491747328083</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031230018</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222421</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960418</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343059</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655151</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072231</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838017</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975436</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099298</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803423</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5783,19 +5783,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843828</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M21" t="n">
-        <v>1458.313011372373</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031230018</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222421</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960418</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343059</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655151</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072231</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838017</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6145,19 +6145,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229973</v>
+        <v>67.69877031229984</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222416</v>
+        <v>149.5338114222417</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960414</v>
+        <v>313.6614512960415</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343054</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655146</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O25" t="n">
         <v>974.9038003296512</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>247.9841471388019</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.017864895837</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614366</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.39041838852</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755555</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647884</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508979</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379501</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>872.7308420875813</v>
+        <v>872.7308420875812</v>
       </c>
       <c r="C27" t="n">
-        <v>722.0766116476735</v>
+        <v>722.0766116476734</v>
       </c>
       <c r="D27" t="n">
-        <v>591.9876442691539</v>
+        <v>591.9876442691537</v>
       </c>
       <c r="E27" t="n">
         <v>455.5411533800415</v>
@@ -6294,46 +6294,46 @@
         <v>331.1093472631733</v>
       </c>
       <c r="G27" t="n">
-        <v>211.0495293350378</v>
+        <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672777</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>358.2210070908127</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278174</v>
+        <v>841.787092989126</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368296</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
       </c>
       <c r="R27" t="n">
-        <v>2367.783350821251</v>
+        <v>2367.78335082125</v>
       </c>
       <c r="S27" t="n">
-        <v>2232.85267372112</v>
+        <v>2232.852673721119</v>
       </c>
       <c r="T27" t="n">
-        <v>2055.868861920028</v>
+        <v>2055.868861920027</v>
       </c>
       <c r="U27" t="n">
         <v>1845.80571859867</v>
@@ -6342,13 +6342,13 @@
         <v>1623.265716969737</v>
       </c>
       <c r="W27" t="n">
-        <v>1393.148471103024</v>
+        <v>1393.148471103023</v>
       </c>
       <c r="X27" t="n">
         <v>1203.841393453035</v>
       </c>
       <c r="Y27" t="n">
-        <v>1024.527176528543</v>
+        <v>1024.527176528542</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
         <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
@@ -6373,37 +6373,37 @@
         <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
@@ -6443,16 +6443,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,52 +6461,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>3135.209895105043</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3483.397387236565</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420328</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
         <v>111.5186030232841</v>
@@ -6619,52 +6619,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189325</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>255.2650543744559</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230637</v>
+        <v>614.2474104019177</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741592</v>
+        <v>1107.567702120446</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786173</v>
+        <v>1653.568602165027</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.722335423635</v>
+        <v>2293.032006377472</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315964</v>
+        <v>2733.071607269801</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174556</v>
+        <v>3081.259099401322</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042574</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.2744199085</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397281</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965144</v>
+        <v>365.671367692971</v>
       </c>
       <c r="C34" t="n">
-        <v>350.429060991868</v>
+        <v>309.3853606404856</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237471</v>
+        <v>267.6713584245256</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123139</v>
+        <v>226.0316571652534</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546512</v>
+        <v>182.6248332597517</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834611</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431945</v>
+        <v>86.73045008374187</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074061</v>
+        <v>261.0422972872699</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082759</v>
+        <v>425.1699371610697</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736099</v>
+        <v>611.4615154993337</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.583162631889</v>
+        <v>906.3032701055258</v>
       </c>
       <c r="O34" t="n">
-        <v>1344.287929673597</v>
+        <v>1069.008037147234</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376596</v>
+        <v>1300.536323498795</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746647</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308588</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420502</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689366</v>
+        <v>987.7859626250175</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395542</v>
+        <v>835.7257283273671</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000962</v>
+        <v>666.3144371400699</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124436</v>
+        <v>546.1532258045784</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584513</v>
+        <v>436.960275502747</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229859</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222405</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960402</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343043</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655135</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072216</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>965.7235964838002</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7202,10 +7202,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,25 +7333,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222405</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,22 +7433,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7497,7 +7497,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,19 +7679,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7725,13 +7725,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
         <v>1223.947919817482</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229927</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222411</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960409</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M46" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P46" t="n">
         <v>1094.779966106229</v>
@@ -7834,22 +7834,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>276.2476446788171</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>343.148577062445</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321653</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8061,22 +8061,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>577.0610358108087</v>
+        <v>348.2985274535454</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886046</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8222,16 +8222,16 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321653</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>525.7315856807965</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>419.1855732769364</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837499</v>
+        <v>465.3882399439956</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886046</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P6" t="n">
-        <v>142.3190939440779</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,7 +8465,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>223.8267004481029</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8535,22 +8535,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>351.5705978518764</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>440.1969457594874</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,16 +8769,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9006,7 +9006,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,7 +9015,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294519</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9480,22 +9480,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>577.0069902189987</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416652</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>535.2177063841971</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9714,25 +9714,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>376.8285690715891</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9951,16 +9951,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063258</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,7 +10197,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>691.2645480167031</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10434,7 +10434,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>340.2745745069888</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,7 +11382,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>454.5321323046928</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750153</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>152.6421677019307</v>
       </c>
       <c r="W11" t="n">
-        <v>246.4122748155594</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>55.63194755881016</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>3.792620559318649</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362792</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>271.6906751335533</v>
+        <v>55.45966769789173</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>24.6979783320323</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>10.59670001869085</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>880170.3417335611</v>
+        <v>879268.0203129206</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>880170.3417335611</v>
+        <v>879268.0203129206</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>787700.2890711526</v>
+        <v>787700.2890711527</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414764.0096147208</v>
+        <v>414764.0096147207</v>
       </c>
       <c r="C2" t="n">
         <v>414764.0096147206</v>
@@ -26320,16 +26320,16 @@
         <v>414764.0096147208</v>
       </c>
       <c r="E2" t="n">
-        <v>366525.7538761215</v>
+        <v>366525.7538761218</v>
       </c>
       <c r="F2" t="n">
-        <v>366525.7538761216</v>
+        <v>366525.7538761217</v>
       </c>
       <c r="G2" t="n">
-        <v>414764.0096147206</v>
+        <v>414764.0096147209</v>
       </c>
       <c r="H2" t="n">
-        <v>414764.0096147205</v>
+        <v>414764.009614721</v>
       </c>
       <c r="I2" t="n">
         <v>414764.0096147209</v>
@@ -26338,10 +26338,10 @@
         <v>414764.0096147205</v>
       </c>
       <c r="K2" t="n">
+        <v>414764.0096147204</v>
+      </c>
+      <c r="L2" t="n">
         <v>414764.0096147205</v>
-      </c>
-      <c r="L2" t="n">
-        <v>414764.0096147208</v>
       </c>
       <c r="M2" t="n">
         <v>414764.0096147209</v>
@@ -26353,7 +26353,7 @@
         <v>414764.0096147209</v>
       </c>
       <c r="P2" t="n">
-        <v>414764.0096147209</v>
+        <v>414764.009614721</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918562</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062165</v>
+        <v>22558.42953401362</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668191</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
-        <v>1.85189012250345e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945029</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728531</v>
+        <v>62456.24177539683</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277123</v>
+        <v>27767.69404277125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190947</v>
+        <v>205625.0607746777</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190946</v>
+        <v>205625.0607746777</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26430,22 +26430,22 @@
         <v>112797.3745002078</v>
       </c>
       <c r="G4" t="n">
-        <v>160556.2909917899</v>
+        <v>160556.29099179</v>
       </c>
       <c r="H4" t="n">
-        <v>160556.2909917899</v>
+        <v>160556.29099179</v>
       </c>
       <c r="I4" t="n">
         <v>160556.29099179</v>
       </c>
       <c r="J4" t="n">
-        <v>161306.7834561732</v>
+        <v>161306.7834561731</v>
       </c>
       <c r="K4" t="n">
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556897</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551967</v>
@@ -26491,13 +26491,13 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391952</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173853</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33940.4477362438</v>
+        <v>-29889.77572882913</v>
       </c>
       <c r="C6" t="n">
-        <v>148264.5005556121</v>
+        <v>143968.8813052257</v>
       </c>
       <c r="D6" t="n">
-        <v>141672.4392158901</v>
+        <v>133936.1499924981</v>
       </c>
       <c r="E6" t="n">
-        <v>88419.79820202867</v>
+        <v>88210.06665533928</v>
       </c>
       <c r="F6" t="n">
-        <v>200542.3596760733</v>
+        <v>200332.6281293838</v>
       </c>
       <c r="G6" t="n">
-        <v>148612.6237707291</v>
+        <v>148612.6237707293</v>
       </c>
       <c r="H6" t="n">
-        <v>196037.9493074107</v>
+        <v>196037.9493074114</v>
       </c>
       <c r="I6" t="n">
-        <v>196037.9493074114</v>
+        <v>196037.9493074113</v>
       </c>
       <c r="J6" t="n">
-        <v>-17003.96828987507</v>
+        <v>-10487.68313530146</v>
       </c>
       <c r="K6" t="n">
-        <v>189798.180904628</v>
+        <v>189798.1809046277</v>
       </c>
       <c r="L6" t="n">
-        <v>134615.5919700073</v>
+        <v>130566.7547595343</v>
       </c>
       <c r="M6" t="n">
-        <v>153837.1198477882</v>
+        <v>152785.4248366001</v>
       </c>
       <c r="N6" t="n">
-        <v>196037.9493074113</v>
+        <v>196037.9493074112</v>
       </c>
       <c r="O6" t="n">
         <v>168270.25526464</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26753,7 +26753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443785</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095211</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>34.70961755346404</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660663</v>
+        <v>78.07030221924605</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155137</v>
+        <v>17.58004954287432</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.18628681108654e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485708</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773723</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407197</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>34.70961755346404</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485708</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,7 +27382,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>239.7730464435447</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>365.710600623315</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>94.41567260241476</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938626638</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>53.09106208414983</v>
       </c>
       <c r="C4" t="n">
-        <v>81.93312285394907</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27622,16 +27622,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>17.63490089214685</v>
       </c>
       <c r="H5" t="n">
-        <v>56.09822144574997</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27673,7 +27673,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27707,10 +27707,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270006</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>34.04445167369892</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>11.93674844824778</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>115.6083692242649</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27856,22 +27856,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>276.9523667054527</v>
+        <v>52.12177523271248</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,7 +27910,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>119.825676710418</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>24.04094380275529</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668903</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28758,37 +28758,37 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668902</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668856</v>
+        <v>35.71049010668868</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,13 +29226,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>30.2722376590136</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431664</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599618</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>43.49509683159869</v>
       </c>
       <c r="K32" t="n">
-        <v>86.27291196566875</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000707</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000707</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>18.7144686125456</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>76.79385455031181</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30165,10 +30165,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668742</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,13 +30180,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30405,28 +30405,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.636002634528339</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082779</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,10 +30876,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668811</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>35.71049010668769</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30894,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -32473,25 +32473,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -32555,16 +32555,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.129524869426178e-13</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.318102246374109e-13</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.352988490699988e-13</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.237720141233448e-13</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>133.1892414995797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>189.9004073319533</v>
       </c>
       <c r="M2" t="n">
-        <v>543.695742434438</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6739137614967</v>
+        <v>255.9114054042335</v>
       </c>
       <c r="N3" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,16 +34942,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>376.6130943430124</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>268.8841260360112</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.695742434438</v>
+        <v>373.0011178946837</v>
       </c>
       <c r="N6" t="n">
-        <v>543.695742434438</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P6" t="n">
-        <v>55.23572912476322</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,7 +35185,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>74.26286302400655</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35255,22 +35255,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>259.1834758025644</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>347.5093868705986</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,7 +35735,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634529956</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36054,16 +36054,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>484.6198681696869</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828092</v>
+        <v>442.5301474953082</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529949</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>286.7682222146709</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529489</v>
+        <v>5.636002634529611</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,13 +36522,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.3831193851026</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729924</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122748</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36844,16 +36844,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>531.1349729017825</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,7 +36917,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>598.8774259673912</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>189.6059785576877</v>
       </c>
       <c r="K32" t="n">
-        <v>448.8813523974484</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176212</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066584</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111299</v>
+        <v>299.4926067837692</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273743</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791163</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868807</v>
+        <v>195.44157745952</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220907</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750295</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8015047505038</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>80.25061856046429</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634528348</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,13 +37476,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133831</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529095</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,7 +38102,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529037</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934977</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38190,7 +38190,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
